--- a/10_SRS/modules_layout.xlsx
+++ b/10_SRS/modules_layout.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="vocabulary" sheetId="1" r:id="rId1"/>
-    <sheet name="speaking" sheetId="2" r:id="rId2"/>
+    <sheet name="kanji" sheetId="3" r:id="rId2"/>
+    <sheet name="speaking" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>&gt;&gt;</t>
   </si>
@@ -107,12 +108,258 @@
   <si>
     <t>Nếu browser không phải chrome thì đưa ra cảnh báo và khuyến cáo phải dùng chrome.</t>
   </si>
+  <si>
+    <t>和</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei SC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>やわ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei SC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>らぐ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei SC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>やわ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei SC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>らげる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei SC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>なご</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei SC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>む</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei SC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>なご</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei SC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>やか</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei SC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>ワ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei SC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>オ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei SC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>カ</t>
+    </r>
+  </si>
+  <si>
+    <t>hoà bình, kiểu cách nhật, nhẹ nhàng</t>
+  </si>
+  <si>
+    <t>1. 英和</t>
+  </si>
+  <si>
+    <t>2. 緩和</t>
+  </si>
+  <si>
+    <t>3. 共和党</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF660066"/>
+        <rFont val="Lantinghei SC Demibold"/>
+      </rPr>
+      <t>緩和</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF660066"/>
+        <rFont val="Lantinghei SC Demibold"/>
+      </rPr>
+      <t>緩和</t>
+    </r>
+  </si>
+  <si>
+    <t>Giải nghĩa option2</t>
+  </si>
+  <si>
+    <t>Giải nghĩa option1</t>
+  </si>
+  <si>
+    <t>Giải nghĩa option3</t>
+  </si>
+  <si>
+    <t>Giải nghĩa option4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +418,29 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lantinghei SC Demibold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF6600"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF660066"/>
+      <name val="Lantinghei SC Demibold"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="72"/>
+      <color rgb="FFFF6600"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="5">
@@ -303,7 +573,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -329,8 +599,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -373,6 +655,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -400,8 +685,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -414,6 +705,12 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -426,6 +723,12 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,8 +746,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -456,12 +759,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4559300" y="1219200"/>
-          <a:ext cx="1371600" cy="635000"/>
+          <a:ext cx="2374900" cy="635000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -153242"/>
-            <a:gd name="adj2" fmla="val 103116"/>
+            <a:gd name="adj1" fmla="val -113135"/>
+            <a:gd name="adj2" fmla="val 93116"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -499,7 +802,15 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Từ vựng làm hiện nổi bật ở trung tâm</a:t>
+            <a:t>Từ vựng làm hiện nổi bật ở trung tâm, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>âm thanh được phát ra cùng lúc với từ vựng xuất hiện.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -614,7 +925,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Khi click vào từ vựng, thì sẽ phát âm và hiển thị cách đọc ở phía trên,</a:t>
+            <a:t>Khi click vào từ vựng, thì âm thanh được phát lại và hiển thị cách đọc ở phía trên,</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -1053,15 +1364,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1070,13 +1381,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4394200" y="5245100"/>
+          <a:off x="4559300" y="5232400"/>
           <a:ext cx="1676400" cy="622300"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -72265"/>
-            <a:gd name="adj2" fmla="val 8912"/>
+            <a:gd name="adj1" fmla="val -66962"/>
+            <a:gd name="adj2" fmla="val 12994"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -1601,6 +1912,1168 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangular Callout 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4559300" y="1219200"/>
+          <a:ext cx="1371600" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -153242"/>
+            <a:gd name="adj2" fmla="val 103116"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Từ vựng làm hiện nổi bật ở trung tâm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangular Callout 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4546600" y="2527300"/>
+          <a:ext cx="2133600" cy="939800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -120816"/>
+            <a:gd name="adj2" fmla="val -54748"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Khi click vào từ vựng, thì sẽ hiển thị cách đọc ở phía trên,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> và hiển thị nghĩa ở phía dưới</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50821</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>230780</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>230780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="description_icon.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="584221" y="2794021"/>
+          <a:ext cx="179959" cy="179959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangular Callout 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4521200" y="3860800"/>
+          <a:ext cx="2095500" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -82126"/>
+            <a:gd name="adj2" fmla="val -42586"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Phần ví dụ nếu có được hiển thị bên dưới. Hiển thị trễ khoảng 2s sau khi từ vựng được hiện.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Khi hover chuột lên thì nghĩa sẽ được hiển thị kiểu tip</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangular Callout 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4546600" y="317500"/>
+          <a:ext cx="3467100" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -152780"/>
+            <a:gd name="adj2" fmla="val 20582"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Các setting điều khiển hoạt động của module đặt phía trên.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1. Có hiển thị luôn nghĩa và cách đọc luôn không.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangular Callout 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4559300" y="5232400"/>
+          <a:ext cx="1676400" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66962"/>
+            <a:gd name="adj2" fmla="val 12994"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>slide danh sách từ để bên dưới</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> để dễ dàng thao tác trên smart.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="next_icon.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4127500" y="1828800"/>
+          <a:ext cx="508000" cy="808990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="53975" dist="50800" dir="2700000" sx="102000" sy="102000" algn="tl" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="27000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>44491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147980</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="next_icon.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="152400" y="1784391"/>
+          <a:ext cx="528980" cy="827999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="53975" dist="50800" dir="2700000" sx="102000" sy="102000" algn="tl" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="27000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="next_icon.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4127500" y="7937500"/>
+          <a:ext cx="508000" cy="808990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="53975" dist="50800" dir="2700000" sx="102000" sy="102000" algn="tl" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="27000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>44491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>147980</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="next_icon.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="152400" y="7893091"/>
+          <a:ext cx="528980" cy="827999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="53975" dist="50800" dir="2700000" sx="102000" sy="102000" algn="tl" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="27000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rounded Rectangular Callout 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="8966200"/>
+          <a:ext cx="2133600" cy="2260600"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -78295"/>
+            <a:gd name="adj2" fmla="val 12872"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Nếu chọn đúng đáp án, màu nền chuyển màu xanh, âm thanh correct phát lên. Sau đó trễ khoảng 2s thì tự động next sang từ tiếp theo.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Nếu chọn sai, màu nền đỏ, âm thanh incorrect cảnh báo.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76208</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>105012</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="onyomi_icon.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="20520000">
+          <a:off x="609608" y="1498610"/>
+          <a:ext cx="295504" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>192800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22" descr="kunyomi_icon.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="18900000">
+          <a:off x="596900" y="1066800"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>36099</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>251999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="example_icon.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="584201" y="3644901"/>
+          <a:ext cx="251998" cy="251998"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>61459</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>163059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="description_icon.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7493000"/>
+          <a:ext cx="251959" cy="251959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:reflection stA="43000" dist="63500" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>36059</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>61459</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28" descr="description_icon.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="584200" y="444500"/>
+          <a:ext cx="251959" cy="251959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:reflection stA="43000" dist="63500" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76208</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>105012</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>48810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29" descr="onyomi_icon.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="20520000">
+          <a:off x="609608" y="8356610"/>
+          <a:ext cx="295504" cy="252000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>192800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>154700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30" descr="kunyomi_icon.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="18900000">
+          <a:off x="596900" y="8128000"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rounded Rectangular Callout 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4546600" y="7340600"/>
+          <a:ext cx="3467100" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -152780"/>
+            <a:gd name="adj2" fmla="val 20582"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Các setting điều khiển hoạt động của module đặt phía trên.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1. Có hiển thị luôn nghĩa và cách đọc luôn không.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2287,9 +3760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="AF50" sqref="AF50"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2903,86 +4374,86 @@
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1">
       <c r="C47" s="12"/>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="26" t="s">
+      <c r="K47" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
       <c r="P47" s="13"/>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1">
       <c r="C48" s="12"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
       <c r="P48" s="13"/>
     </row>
     <row r="49" spans="2:17" ht="15" customHeight="1">
       <c r="C49" s="12"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
       <c r="P49" s="13"/>
     </row>
     <row r="50" spans="2:17" ht="15" customHeight="1">
       <c r="C50" s="12"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
       <c r="P50" s="13"/>
     </row>
     <row r="51" spans="2:17" ht="15" customHeight="1">
       <c r="C51" s="12"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
       <c r="P51" s="13"/>
     </row>
     <row r="52" spans="2:17" ht="15" customHeight="1">
@@ -3019,86 +4490,86 @@
     </row>
     <row r="54" spans="2:17">
       <c r="C54" s="12"/>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="26" t="s">
+      <c r="K54" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
       <c r="P54" s="13"/>
     </row>
     <row r="55" spans="2:17">
       <c r="C55" s="12"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
       <c r="P55" s="13"/>
     </row>
     <row r="56" spans="2:17">
       <c r="C56" s="12"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
       <c r="P56" s="13"/>
     </row>
     <row r="57" spans="2:17">
       <c r="C57" s="12"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
       <c r="P57" s="13"/>
     </row>
     <row r="58" spans="2:17">
       <c r="C58" s="12"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
       <c r="P58" s="13"/>
     </row>
     <row r="59" spans="2:17">
@@ -3185,9 +4656,979 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="3.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="20">
+      <c r="A1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20"/>
+    </row>
+    <row r="4" spans="1:16" ht="7" customHeight="1"/>
+    <row r="5" spans="1:16">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="C6" s="14"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" ht="17">
+      <c r="C7" s="12"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="C8" s="12"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" ht="17">
+      <c r="C9" s="14"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" spans="1:16" ht="20">
+      <c r="C10" s="14"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="15"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="C11" s="14"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" ht="11" customHeight="1">
+      <c r="C12" s="14"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="C13" s="14"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="C14" s="14"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:16" ht="19" customHeight="1">
+      <c r="C15" s="14"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" ht="19" customHeight="1">
+      <c r="C16" s="14"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="16"/>
+    </row>
+    <row r="17" spans="1:17" ht="20">
+      <c r="C17" s="12"/>
+      <c r="D17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1">
+      <c r="C18" s="12"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" spans="1:17" ht="18">
+      <c r="C19" s="12"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="1:17" ht="20">
+      <c r="C20" s="12"/>
+      <c r="D20" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="1:17" ht="18">
+      <c r="C21" s="12"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="13"/>
+    </row>
+    <row r="22" spans="1:17" ht="20">
+      <c r="C22" s="12"/>
+      <c r="D22" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="1:17" ht="18">
+      <c r="C23" s="12"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="13"/>
+    </row>
+    <row r="24" spans="1:17" ht="18">
+      <c r="C24" s="12"/>
+      <c r="D24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="13"/>
+    </row>
+    <row r="25" spans="1:17" ht="18">
+      <c r="C25" s="12"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="13"/>
+    </row>
+    <row r="26" spans="1:17" ht="18">
+      <c r="C26" s="12"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="13"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="C27" s="12"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="13"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="19"/>
+    </row>
+    <row r="29" spans="1:17" ht="6" customHeight="1"/>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3</v>
+      </c>
+      <c r="E30" s="5">
+        <v>4</v>
+      </c>
+      <c r="F30" s="5">
+        <v>5</v>
+      </c>
+      <c r="G30" s="5">
+        <v>6</v>
+      </c>
+      <c r="H30" s="6">
+        <v>7</v>
+      </c>
+      <c r="I30" s="4">
+        <v>8</v>
+      </c>
+      <c r="J30" s="4">
+        <v>9</v>
+      </c>
+      <c r="K30" s="4">
+        <v>10</v>
+      </c>
+      <c r="L30" s="4">
+        <v>11</v>
+      </c>
+      <c r="M30" s="4">
+        <v>12</v>
+      </c>
+      <c r="N30" s="4">
+        <v>13</v>
+      </c>
+      <c r="O30" s="4">
+        <v>14</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="34" spans="1:16" ht="20">
+      <c r="A34" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="20"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="11"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="C39" s="14"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="16"/>
+    </row>
+    <row r="40" spans="1:16" ht="17">
+      <c r="C40" s="12"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="13"/>
+    </row>
+    <row r="41" spans="1:16" ht="15" customHeight="1">
+      <c r="C41" s="12"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="13"/>
+    </row>
+    <row r="42" spans="1:16" ht="15" customHeight="1">
+      <c r="C42" s="14"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="15"/>
+    </row>
+    <row r="43" spans="1:16" ht="15" customHeight="1">
+      <c r="C43" s="14"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="15"/>
+    </row>
+    <row r="44" spans="1:16" ht="15" customHeight="1">
+      <c r="C44" s="14"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="16"/>
+    </row>
+    <row r="45" spans="1:16" ht="15" customHeight="1">
+      <c r="C45" s="14"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="16"/>
+    </row>
+    <row r="46" spans="1:16" ht="15" customHeight="1">
+      <c r="C46" s="14"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="16"/>
+    </row>
+    <row r="47" spans="1:16" ht="15" customHeight="1">
+      <c r="C47" s="14"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="16"/>
+    </row>
+    <row r="48" spans="1:16" ht="15" customHeight="1">
+      <c r="C48" s="14"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="16"/>
+    </row>
+    <row r="49" spans="3:16" ht="15" customHeight="1">
+      <c r="C49" s="14"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="16"/>
+    </row>
+    <row r="50" spans="3:16" ht="15" customHeight="1">
+      <c r="C50" s="12"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="13"/>
+    </row>
+    <row r="51" spans="3:16" ht="15" customHeight="1">
+      <c r="C51" s="12"/>
+      <c r="D51" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="13"/>
+    </row>
+    <row r="52" spans="3:16" ht="15" customHeight="1">
+      <c r="C52" s="12"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="13"/>
+    </row>
+    <row r="53" spans="3:16" ht="15" customHeight="1">
+      <c r="C53" s="12"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="13"/>
+    </row>
+    <row r="54" spans="3:16" ht="15" customHeight="1">
+      <c r="C54" s="12"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="13"/>
+    </row>
+    <row r="55" spans="3:16" ht="15" customHeight="1">
+      <c r="C55" s="12"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="13"/>
+    </row>
+    <row r="56" spans="3:16" ht="15" customHeight="1">
+      <c r="C56" s="12"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="13"/>
+    </row>
+    <row r="57" spans="3:16" ht="15" customHeight="1">
+      <c r="C57" s="12"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="13"/>
+    </row>
+    <row r="58" spans="3:16" ht="15" customHeight="1">
+      <c r="C58" s="12"/>
+      <c r="D58" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="13"/>
+    </row>
+    <row r="59" spans="3:16" ht="15" customHeight="1">
+      <c r="C59" s="12"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="13"/>
+    </row>
+    <row r="60" spans="3:16" ht="15" customHeight="1">
+      <c r="C60" s="12"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="13"/>
+    </row>
+    <row r="61" spans="3:16" ht="15" customHeight="1">
+      <c r="C61" s="12"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="13"/>
+    </row>
+    <row r="62" spans="3:16" ht="15" customHeight="1">
+      <c r="C62" s="12"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="13"/>
+    </row>
+    <row r="63" spans="3:16">
+      <c r="C63" s="17"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="19"/>
+    </row>
+    <row r="65" spans="2:17">
+      <c r="B65" s="1"/>
+      <c r="C65" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5">
+        <v>3</v>
+      </c>
+      <c r="E65" s="5">
+        <v>4</v>
+      </c>
+      <c r="F65" s="5">
+        <v>5</v>
+      </c>
+      <c r="G65" s="5">
+        <v>6</v>
+      </c>
+      <c r="H65" s="6">
+        <v>7</v>
+      </c>
+      <c r="I65" s="4">
+        <v>8</v>
+      </c>
+      <c r="J65" s="4">
+        <v>9</v>
+      </c>
+      <c r="K65" s="4">
+        <v>10</v>
+      </c>
+      <c r="L65" s="4">
+        <v>11</v>
+      </c>
+      <c r="M65" s="4">
+        <v>12</v>
+      </c>
+      <c r="N65" s="4">
+        <v>13</v>
+      </c>
+      <c r="O65" s="4">
+        <v>14</v>
+      </c>
+      <c r="P65" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F11:M15"/>
+    <mergeCell ref="F44:M48"/>
+    <mergeCell ref="D51:H55"/>
+    <mergeCell ref="K51:O55"/>
+    <mergeCell ref="D58:H62"/>
+    <mergeCell ref="K58:O62"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -3209,188 +5650,188 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1">
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="29"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="30"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1">
-      <c r="C6" s="30"/>
-      <c r="D6" s="39" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="31"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="C7" s="30"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1">
-      <c r="C8" s="30"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="32"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="33"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1">
-      <c r="C9" s="30"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="31"/>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1">
-      <c r="C10" s="30"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="31"/>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1">
-      <c r="C11" s="30"/>
-      <c r="D11" s="39" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="31"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
-      <c r="C12" s="30"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="32"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1">
-      <c r="C13" s="30"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="32"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1">
-      <c r="C14" s="30"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="32"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1">
-      <c r="C15" s="30"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="32"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1">
-      <c r="C16" s="30"/>
-      <c r="D16" s="34"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3402,92 +5843,92 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="31"/>
+      <c r="P16" s="32"/>
     </row>
     <row r="17" spans="3:16" ht="15" customHeight="1">
-      <c r="C17" s="30"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="31"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="32"/>
     </row>
     <row r="18" spans="3:16" ht="15" customHeight="1">
-      <c r="C18" s="30"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="40" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="31"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="3:16" ht="15" customHeight="1">
-      <c r="C19" s="30"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="3:16" ht="15" customHeight="1">
-      <c r="C20" s="30"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="3:16" ht="15" customHeight="1">
-      <c r="C21" s="30"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="31"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="3:16" ht="15" customHeight="1">
-      <c r="C22" s="30"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="25"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -3500,10 +5941,10 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="31"/>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="3:16" ht="15" customHeight="1">
-      <c r="C23" s="30"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -3516,103 +5957,103 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="31"/>
+      <c r="P23" s="32"/>
     </row>
     <row r="24" spans="3:16" ht="15" customHeight="1">
-      <c r="C24" s="30"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="31"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="32"/>
     </row>
     <row r="25" spans="3:16" ht="15" customHeight="1">
-      <c r="C25" s="30"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="31"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="32"/>
     </row>
     <row r="26" spans="3:16" ht="15" customHeight="1">
-      <c r="C26" s="30"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="31"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="32"/>
     </row>
     <row r="27" spans="3:16" ht="15" customHeight="1">
-      <c r="C27" s="30"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="31"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="32"/>
     </row>
     <row r="28" spans="3:16" ht="15" customHeight="1">
-      <c r="C28" s="30"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="31"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="32"/>
     </row>
     <row r="29" spans="3:16">
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="38"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/10_SRS/modules_layout.xlsx
+++ b/10_SRS/modules_layout.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>&gt;&gt;</t>
   </si>
@@ -343,23 +343,26 @@
     </r>
   </si>
   <si>
-    <t>Giải nghĩa option2</t>
+    <t>HOÀ</t>
   </si>
   <si>
-    <t>Giải nghĩa option1</t>
+    <t>HÁN VIỆT option1</t>
   </si>
   <si>
-    <t>Giải nghĩa option3</t>
+    <t>HÁN VIỆT option2</t>
   </si>
   <si>
-    <t>Giải nghĩa option4</t>
+    <t>HÁN VIỆT option3</t>
+  </si>
+  <si>
+    <t>HÁN VIỆT option4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -441,6 +444,13 @@
       <sz val="72"/>
       <color rgb="FFFF6600"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -573,7 +583,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -611,8 +621,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -646,9 +660,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -657,9 +668,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -679,20 +687,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -711,6 +731,8 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -729,6 +751,8 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -802,15 +826,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Từ vựng làm hiện nổi bật ở trung tâm, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>âm thanh được phát ra cùng lúc với từ vựng xuất hiện.</a:t>
+            <a:t>Từ vựng làm hiện nổi bật ở trung tâm, âm thanh được phát ra cùng lúc với từ vựng xuất hiện.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1198,11 +1214,6 @@
             </a:rPr>
             <a:t>Khi hover chuột lên thì nghĩa sẽ được hiển thị kiểu tip</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1330,15 +1341,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>1. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Có phát âm hay không.</a:t>
+            <a:t>1. Có phát âm hay không.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1351,11 +1354,6 @@
             </a:rPr>
             <a:t>2. Có hiển thị luôn nghĩa và cách đọc luôn không.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1803,11 +1801,6 @@
             </a:rPr>
             <a:t>Âm thanh được phát âm đồng thời khi từ xuất hiện. Click lại vào từ thì âm thanh được phát âm lại.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1898,11 +1891,6 @@
             </a:rPr>
             <a:t>Nếu chọn sai, màu nền đỏ, âm thanh incorrect cảnh báo.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1916,15 +1904,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1933,13 +1921,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4559300" y="1219200"/>
-          <a:ext cx="1371600" cy="635000"/>
+          <a:off x="4584700" y="1193800"/>
+          <a:ext cx="1892300" cy="482600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -153242"/>
-            <a:gd name="adj2" fmla="val 103116"/>
+            <a:gd name="adj1" fmla="val -139819"/>
+            <a:gd name="adj2" fmla="val 50484"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -1988,14 +1976,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2004,8 +1992,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4546600" y="2527300"/>
-          <a:ext cx="2133600" cy="939800"/>
+          <a:off x="4546600" y="2336800"/>
+          <a:ext cx="2133600" cy="825500"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2048,7 +2036,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Khi click vào từ vựng, thì sẽ hiển thị cách đọc ở phía trên,</a:t>
+            <a:t>Khi click vào từ vựng, thì sẽ hiển thị cách đọc,</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -2056,7 +2044,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> và hiển thị nghĩa ở phía dưới</a:t>
+            <a:t> và nghĩa ở phía dưới</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -2072,13 +2060,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>50821</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>50821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>230780</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>230780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2116,14 +2104,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2132,13 +2120,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4521200" y="3860800"/>
-          <a:ext cx="2095500" cy="1066800"/>
+          <a:off x="4521200" y="4876800"/>
+          <a:ext cx="3225800" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -82126"/>
-            <a:gd name="adj2" fmla="val -42586"/>
+            <a:gd name="adj1" fmla="val -80551"/>
+            <a:gd name="adj2" fmla="val -48996"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -2189,11 +2177,6 @@
             </a:rPr>
             <a:t>Khi hover chuột lên thì nghĩa sẽ được hiển thị kiểu tip</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2210,7 +2193,7 @@
       <xdr:col>30</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2276,11 +2259,6 @@
             </a:rPr>
             <a:t>1. Có hiển thị luôn nghĩa và cách đọc luôn không.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2290,13 +2268,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2374,13 +2352,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>186690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2425,13 +2403,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>44491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>147980</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>161290</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2476,13 +2454,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>135890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2527,13 +2505,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>44491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>147980</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2578,13 +2556,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2659,11 +2637,6 @@
             </a:rPr>
             <a:t>Nếu chọn sai, màu nền đỏ, âm thanh incorrect cảnh báo.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2673,13 +2646,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76208</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>177810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>105012</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>23410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2717,13 +2690,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>192800</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>142000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2747,7 +2720,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="18900000">
-          <a:off x="596900" y="1066800"/>
+          <a:off x="596900" y="2870200"/>
           <a:ext cx="396000" cy="396000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2761,13 +2734,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>50801</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>36099</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>251999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2805,13 +2778,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>61459</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>163059</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2899,13 +2872,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>76208</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>177810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>105012</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>48810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2943,13 +2916,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>192800</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>154700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2987,13 +2960,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3060,11 +3033,6 @@
             </a:rPr>
             <a:t>1. Có hiển thị luôn nghĩa và cách đọc luôn không.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3423,11 +3391,6 @@
             </a:rPr>
             <a:t>Click vào câu này sẽ hiển thị nghĩa dạng tip</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3845,7 +3808,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="22" t="s">
         <v>4</v>
       </c>
       <c r="J9" s="7"/>
@@ -3860,16 +3823,16 @@
       <c r="C10" s="14"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="16"/>
@@ -3878,14 +3841,14 @@
       <c r="C11" s="14"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="16"/>
@@ -3894,14 +3857,14 @@
       <c r="C12" s="14"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="16"/>
@@ -3910,14 +3873,14 @@
       <c r="C13" s="14"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="16"/>
@@ -3926,21 +3889,21 @@
       <c r="C14" s="14"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="16"/>
     </row>
     <row r="15" spans="1:16" ht="20">
       <c r="C15" s="12"/>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="1"/>
@@ -3974,7 +3937,7 @@
     </row>
     <row r="17" spans="1:17" ht="18">
       <c r="C17" s="12"/>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="1"/>
@@ -3992,7 +3955,7 @@
     </row>
     <row r="18" spans="1:17" ht="18">
       <c r="C18" s="12"/>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="1"/>
@@ -4010,7 +3973,7 @@
     </row>
     <row r="19" spans="1:17" ht="18">
       <c r="C19" s="12"/>
-      <c r="D19" s="24"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -4026,7 +3989,7 @@
     </row>
     <row r="20" spans="1:17" ht="18">
       <c r="C20" s="12"/>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="1"/>
@@ -4044,7 +4007,7 @@
     </row>
     <row r="21" spans="1:17" ht="18">
       <c r="C21" s="12"/>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="1"/>
@@ -4265,7 +4228,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="23"/>
+      <c r="I40" s="22"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -4278,16 +4241,16 @@
       <c r="C41" s="14"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="16"/>
@@ -4296,14 +4259,14 @@
       <c r="C42" s="14"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="16"/>
@@ -4312,14 +4275,14 @@
       <c r="C43" s="14"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="16"/>
@@ -4328,14 +4291,14 @@
       <c r="C44" s="14"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="16"/>
@@ -4344,21 +4307,21 @@
       <c r="C45" s="14"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="16"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1">
       <c r="C46" s="12"/>
-      <c r="D46" s="22"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -4374,91 +4337,91 @@
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1">
       <c r="C47" s="12"/>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="27" t="s">
+      <c r="K47" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
       <c r="P47" s="13"/>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1">
       <c r="C48" s="12"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
       <c r="P48" s="13"/>
     </row>
     <row r="49" spans="2:17" ht="15" customHeight="1">
       <c r="C49" s="12"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
       <c r="P49" s="13"/>
     </row>
     <row r="50" spans="2:17" ht="15" customHeight="1">
       <c r="C50" s="12"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
       <c r="P50" s="13"/>
     </row>
     <row r="51" spans="2:17" ht="15" customHeight="1">
       <c r="C51" s="12"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
       <c r="P51" s="13"/>
     </row>
     <row r="52" spans="2:17" ht="15" customHeight="1">
       <c r="C52" s="12"/>
-      <c r="D52" s="25"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -4490,86 +4453,86 @@
     </row>
     <row r="54" spans="2:17">
       <c r="C54" s="12"/>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="27" t="s">
+      <c r="K54" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
       <c r="P54" s="13"/>
     </row>
     <row r="55" spans="2:17">
       <c r="C55" s="12"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
       <c r="P55" s="13"/>
     </row>
     <row r="56" spans="2:17">
       <c r="C56" s="12"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
       <c r="P56" s="13"/>
     </row>
     <row r="57" spans="2:17">
       <c r="C57" s="12"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
       <c r="P57" s="13"/>
     </row>
     <row r="58" spans="2:17">
       <c r="C58" s="12"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
       <c r="P58" s="13"/>
     </row>
     <row r="59" spans="2:17">
@@ -4644,7 +4607,6 @@
     <mergeCell ref="K54:O58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4656,7 +4618,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4704,136 +4666,132 @@
       <c r="O6" s="2"/>
       <c r="P6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="17">
-      <c r="C7" s="12"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="C8" s="12"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" ht="17">
+    <row r="7" spans="1:16">
+      <c r="C7" s="14"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" ht="20">
+      <c r="C8" s="14"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="C9" s="14"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="15"/>
-    </row>
-    <row r="10" spans="1:16" ht="20">
+      <c r="E9" s="2"/>
+      <c r="F9" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" ht="11" customHeight="1">
       <c r="C10" s="14"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="15"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="16"/>
     </row>
     <row r="11" spans="1:16">
       <c r="C11" s="14"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="16"/>
     </row>
-    <row r="12" spans="1:16" ht="11" customHeight="1">
+    <row r="12" spans="1:16">
       <c r="C12" s="14"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="16"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="19" customHeight="1">
       <c r="C13" s="14"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" ht="9" customHeight="1">
       <c r="C14" s="14"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="16"/>
@@ -4842,14 +4800,16 @@
       <c r="C15" s="14"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="16"/>
@@ -4858,454 +4818,458 @@
       <c r="C16" s="14"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="16"/>
     </row>
-    <row r="17" spans="1:17" ht="20">
-      <c r="C17" s="12"/>
-      <c r="D17" s="22" t="s">
+    <row r="17" spans="3:16" ht="17">
+      <c r="C17" s="14"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="16"/>
+    </row>
+    <row r="18" spans="3:16">
+      <c r="C18" s="14"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="16"/>
+    </row>
+    <row r="19" spans="3:16" ht="17">
+      <c r="C19" s="14"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="15"/>
+    </row>
+    <row r="20" spans="3:16">
+      <c r="C20" s="14"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="15"/>
+    </row>
+    <row r="21" spans="3:16" ht="20">
+      <c r="C21" s="14"/>
+      <c r="D21" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="13"/>
-    </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1">
-      <c r="C18" s="12"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="13"/>
-    </row>
-    <row r="19" spans="1:17" ht="18">
-      <c r="C19" s="12"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="13"/>
-    </row>
-    <row r="20" spans="1:17" ht="20">
-      <c r="C20" s="12"/>
-      <c r="D20" s="24" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="16"/>
+    </row>
+    <row r="22" spans="3:16" ht="15" customHeight="1">
+      <c r="C22" s="14"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="16"/>
+    </row>
+    <row r="23" spans="3:16" ht="18">
+      <c r="C23" s="14"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="16"/>
+    </row>
+    <row r="24" spans="3:16" ht="20">
+      <c r="C24" s="14"/>
+      <c r="D24" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="24" t="s">
+      <c r="E24" s="46"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="13"/>
-    </row>
-    <row r="21" spans="1:17" ht="18">
-      <c r="C21" s="12"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="13"/>
-    </row>
-    <row r="22" spans="1:17" ht="20">
-      <c r="C22" s="12"/>
-      <c r="D22" s="24" t="s">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="16"/>
+    </row>
+    <row r="25" spans="3:16" ht="18">
+      <c r="C25" s="14"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="16"/>
+    </row>
+    <row r="26" spans="3:16" ht="20">
+      <c r="C26" s="14"/>
+      <c r="D26" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="24" t="s">
+      <c r="E26" s="46"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="13"/>
-    </row>
-    <row r="23" spans="1:17" ht="18">
-      <c r="C23" s="12"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="13"/>
-    </row>
-    <row r="24" spans="1:17" ht="18">
-      <c r="C24" s="12"/>
-      <c r="D24" s="24" t="s">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="16"/>
+    </row>
+    <row r="27" spans="3:16" ht="18">
+      <c r="C27" s="14"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="16"/>
+    </row>
+    <row r="28" spans="3:16" ht="18">
+      <c r="C28" s="14"/>
+      <c r="D28" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="13"/>
-    </row>
-    <row r="25" spans="1:17" ht="18">
-      <c r="C25" s="12"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="13"/>
-    </row>
-    <row r="26" spans="1:17" ht="18">
-      <c r="C26" s="12"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="13"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="C27" s="12"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="13"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="19"/>
-    </row>
-    <row r="29" spans="1:17" ht="6" customHeight="1"/>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="8" t="s">
+      <c r="E28" s="46"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="16"/>
+    </row>
+    <row r="29" spans="3:16" ht="18">
+      <c r="C29" s="14"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="16"/>
+    </row>
+    <row r="30" spans="3:16">
+      <c r="C30" s="14"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="16"/>
+    </row>
+    <row r="31" spans="3:16">
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="49"/>
+    </row>
+    <row r="32" spans="3:16" ht="6" customHeight="1"/>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D33" s="5">
         <v>3</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E33" s="5">
         <v>4</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F33" s="5">
         <v>5</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G33" s="5">
         <v>6</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H33" s="6">
         <v>7</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I33" s="4">
         <v>8</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J33" s="4">
         <v>9</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K33" s="4">
         <v>10</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L33" s="4">
         <v>11</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M33" s="4">
         <v>12</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N33" s="4">
         <v>13</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O33" s="4">
         <v>14</v>
       </c>
-      <c r="P30" s="8" t="s">
+      <c r="P33" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="Q30" s="1"/>
-    </row>
-    <row r="34" spans="1:16" ht="20">
-      <c r="A34" s="20" t="s">
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="37" spans="1:17" ht="20">
+      <c r="A37" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="20"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="11"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="C39" s="14"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="16"/>
-    </row>
-    <row r="40" spans="1:16" ht="17">
-      <c r="C40" s="12"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="13"/>
-    </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1">
-      <c r="C41" s="12"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="13"/>
-    </row>
-    <row r="42" spans="1:16" ht="15" customHeight="1">
+      <c r="B37" s="20"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="11"/>
+    </row>
+    <row r="42" spans="1:17">
       <c r="C42" s="14"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="15"/>
-    </row>
-    <row r="43" spans="1:16" ht="15" customHeight="1">
-      <c r="C43" s="14"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="15"/>
-    </row>
-    <row r="44" spans="1:16" ht="15" customHeight="1">
-      <c r="C44" s="14"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="16"/>
-    </row>
-    <row r="45" spans="1:16" ht="15" customHeight="1">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="16"/>
+    </row>
+    <row r="43" spans="1:17" ht="17">
+      <c r="C43" s="12"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="13"/>
+    </row>
+    <row r="44" spans="1:17" ht="15" customHeight="1">
+      <c r="C44" s="12"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="13"/>
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1">
       <c r="C45" s="14"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="16"/>
-    </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1">
+      <c r="E45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="15"/>
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1">
       <c r="C46" s="14"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="16"/>
-    </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1">
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="15"/>
+    </row>
+    <row r="47" spans="1:17" ht="15" customHeight="1">
       <c r="C47" s="14"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
+      <c r="F47" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="16"/>
     </row>
-    <row r="48" spans="1:16" ht="15" customHeight="1">
+    <row r="48" spans="1:17" ht="15" customHeight="1">
       <c r="C48" s="14"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="16"/>
@@ -5314,304 +5278,352 @@
       <c r="C49" s="14"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="16"/>
     </row>
     <row r="50" spans="3:16" ht="15" customHeight="1">
-      <c r="C50" s="12"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="16"/>
     </row>
     <row r="51" spans="3:16" ht="15" customHeight="1">
-      <c r="C51" s="12"/>
-      <c r="D51" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="16"/>
     </row>
     <row r="52" spans="3:16" ht="15" customHeight="1">
-      <c r="C52" s="12"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="16"/>
     </row>
     <row r="53" spans="3:16" ht="15" customHeight="1">
       <c r="C53" s="12"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
       <c r="P53" s="13"/>
     </row>
     <row r="54" spans="3:16" ht="15" customHeight="1">
       <c r="C54" s="12"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
+      <c r="D54" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
+      <c r="K54" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
       <c r="P54" s="13"/>
     </row>
     <row r="55" spans="3:16" ht="15" customHeight="1">
       <c r="C55" s="12"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
       <c r="P55" s="13"/>
     </row>
     <row r="56" spans="3:16" ht="15" customHeight="1">
       <c r="C56" s="12"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
       <c r="P56" s="13"/>
     </row>
     <row r="57" spans="3:16" ht="15" customHeight="1">
       <c r="C57" s="12"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
       <c r="P57" s="13"/>
     </row>
     <row r="58" spans="3:16" ht="15" customHeight="1">
       <c r="C58" s="12"/>
-      <c r="D58" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
       <c r="P58" s="13"/>
     </row>
     <row r="59" spans="3:16" ht="15" customHeight="1">
       <c r="C59" s="12"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
       <c r="P59" s="13"/>
     </row>
     <row r="60" spans="3:16" ht="15" customHeight="1">
       <c r="C60" s="12"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
       <c r="P60" s="13"/>
     </row>
     <row r="61" spans="3:16" ht="15" customHeight="1">
       <c r="C61" s="12"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
+      <c r="D61" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
+      <c r="K61" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
       <c r="P61" s="13"/>
     </row>
     <row r="62" spans="3:16" ht="15" customHeight="1">
       <c r="C62" s="12"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="40"/>
       <c r="P62" s="13"/>
     </row>
-    <row r="63" spans="3:16">
-      <c r="C63" s="17"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="19"/>
-    </row>
-    <row r="65" spans="2:17">
-      <c r="B65" s="1"/>
-      <c r="C65" s="8" t="s">
+    <row r="63" spans="3:16" ht="15" customHeight="1">
+      <c r="C63" s="12"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="13"/>
+    </row>
+    <row r="64" spans="3:16" ht="15" customHeight="1">
+      <c r="C64" s="12"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="13"/>
+    </row>
+    <row r="65" spans="2:17" ht="15" customHeight="1">
+      <c r="C65" s="12"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="13"/>
+    </row>
+    <row r="66" spans="2:17">
+      <c r="C66" s="17"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="19"/>
+    </row>
+    <row r="68" spans="2:17">
+      <c r="B68" s="1"/>
+      <c r="C68" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D68" s="5">
         <v>3</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E68" s="5">
         <v>4</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F68" s="5">
         <v>5</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G68" s="5">
         <v>6</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H68" s="6">
         <v>7</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I68" s="4">
         <v>8</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J68" s="4">
         <v>9</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K68" s="4">
         <v>10</v>
       </c>
-      <c r="L65" s="4">
+      <c r="L68" s="4">
         <v>11</v>
       </c>
-      <c r="M65" s="4">
+      <c r="M68" s="4">
         <v>12</v>
       </c>
-      <c r="N65" s="4">
+      <c r="N68" s="4">
         <v>13</v>
       </c>
-      <c r="O65" s="4">
+      <c r="O68" s="4">
         <v>14</v>
       </c>
-      <c r="P65" s="8" t="s">
+      <c r="P68" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="Q65" s="1"/>
+      <c r="Q68" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F11:M15"/>
-    <mergeCell ref="F44:M48"/>
-    <mergeCell ref="D51:H55"/>
-    <mergeCell ref="K51:O55"/>
-    <mergeCell ref="D58:H62"/>
-    <mergeCell ref="K58:O62"/>
+    <mergeCell ref="F9:M13"/>
+    <mergeCell ref="F47:M51"/>
+    <mergeCell ref="D54:H58"/>
+    <mergeCell ref="K54:O58"/>
+    <mergeCell ref="D61:H65"/>
+    <mergeCell ref="K61:O65"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5650,188 +5662,188 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1">
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="30"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1">
-      <c r="C6" s="31"/>
-      <c r="D6" s="40" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="32"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="30"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="C7" s="31"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="32"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="30"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1">
-      <c r="C8" s="31"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="33"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="31"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1">
-      <c r="C9" s="31"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="32"/>
+      <c r="P9" s="30"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1">
-      <c r="C10" s="31"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="32"/>
+      <c r="P10" s="30"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1">
-      <c r="C11" s="31"/>
-      <c r="D11" s="40" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="32"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="30"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
-      <c r="C12" s="31"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="32"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="30"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1">
-      <c r="C13" s="31"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="32"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="30"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1">
-      <c r="C14" s="31"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="32"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="30"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1">
-      <c r="C15" s="31"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="32"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="30"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1">
-      <c r="C16" s="31"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -5843,93 +5855,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="32"/>
+      <c r="P16" s="30"/>
     </row>
     <row r="17" spans="3:16" ht="15" customHeight="1">
-      <c r="C17" s="31"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="32"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="30"/>
     </row>
     <row r="18" spans="3:16" ht="15" customHeight="1">
-      <c r="C18" s="31"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="41" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="32"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="30"/>
     </row>
     <row r="19" spans="3:16" ht="15" customHeight="1">
-      <c r="C19" s="31"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="32"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="30"/>
     </row>
     <row r="20" spans="3:16" ht="15" customHeight="1">
-      <c r="C20" s="31"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="32"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="30"/>
     </row>
     <row r="21" spans="3:16" ht="15" customHeight="1">
-      <c r="C21" s="31"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="32"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="30"/>
     </row>
     <row r="22" spans="3:16" ht="15" customHeight="1">
-      <c r="C22" s="31"/>
-      <c r="D22" s="25"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -5941,10 +5953,10 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="32"/>
+      <c r="P22" s="30"/>
     </row>
     <row r="23" spans="3:16" ht="15" customHeight="1">
-      <c r="C23" s="31"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -5957,103 +5969,103 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="32"/>
+      <c r="P23" s="30"/>
     </row>
     <row r="24" spans="3:16" ht="15" customHeight="1">
-      <c r="C24" s="31"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="32"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="30"/>
     </row>
     <row r="25" spans="3:16" ht="15" customHeight="1">
-      <c r="C25" s="31"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="32"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="30"/>
     </row>
     <row r="26" spans="3:16" ht="15" customHeight="1">
-      <c r="C26" s="31"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="32"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="30"/>
     </row>
     <row r="27" spans="3:16" ht="15" customHeight="1">
-      <c r="C27" s="31"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="32"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="30"/>
     </row>
     <row r="28" spans="3:16" ht="15" customHeight="1">
-      <c r="C28" s="31"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="32"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="30"/>
     </row>
     <row r="29" spans="3:16">
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="39"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/10_SRS/modules_layout.xlsx
+++ b/10_SRS/modules_layout.xlsx
@@ -690,6 +690,12 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,12 +711,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1904,15 +1904,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1921,7 +1921,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4584700" y="1193800"/>
+          <a:off x="4559300" y="1371600"/>
           <a:ext cx="1892300" cy="482600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -1975,15 +1975,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1992,13 +1992,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4546600" y="2336800"/>
-          <a:ext cx="2133600" cy="825500"/>
+          <a:off x="4533900" y="2044700"/>
+          <a:ext cx="3162300" cy="1460500"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -120816"/>
-            <a:gd name="adj2" fmla="val -54748"/>
+            <a:gd name="adj1" fmla="val -102077"/>
+            <a:gd name="adj2" fmla="val -37824"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -2046,9 +2046,47 @@
             </a:rPr>
             <a:t> và nghĩa ở phía dưới</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>đồng thời đổi chữ hiển thị sang ảnh trong trường image.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Click tiếp 1 lần nữa sẽ switch lại trạng thái ban ban đầu.</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -3823,16 +3861,16 @@
       <c r="C10" s="14"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="16"/>
@@ -3841,14 +3879,14 @@
       <c r="C11" s="14"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="16"/>
@@ -3857,14 +3895,14 @@
       <c r="C12" s="14"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="16"/>
@@ -3873,14 +3911,14 @@
       <c r="C13" s="14"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="16"/>
@@ -3889,14 +3927,14 @@
       <c r="C14" s="14"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="16"/>
@@ -4241,16 +4279,16 @@
       <c r="C41" s="14"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="39" t="s">
+      <c r="F41" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="16"/>
@@ -4259,14 +4297,14 @@
       <c r="C42" s="14"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="16"/>
@@ -4275,14 +4313,14 @@
       <c r="C43" s="14"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="16"/>
@@ -4291,14 +4329,14 @@
       <c r="C44" s="14"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="16"/>
@@ -4307,14 +4345,14 @@
       <c r="C45" s="14"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="16"/>
@@ -4337,86 +4375,86 @@
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1">
       <c r="C47" s="12"/>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="40" t="s">
+      <c r="K47" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
       <c r="P47" s="13"/>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1">
       <c r="C48" s="12"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
       <c r="P48" s="13"/>
     </row>
     <row r="49" spans="2:17" ht="15" customHeight="1">
       <c r="C49" s="12"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
       <c r="P49" s="13"/>
     </row>
     <row r="50" spans="2:17" ht="15" customHeight="1">
       <c r="C50" s="12"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
       <c r="P50" s="13"/>
     </row>
     <row r="51" spans="2:17" ht="15" customHeight="1">
       <c r="C51" s="12"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
       <c r="P51" s="13"/>
     </row>
     <row r="52" spans="2:17" ht="15" customHeight="1">
@@ -4453,86 +4491,86 @@
     </row>
     <row r="54" spans="2:17">
       <c r="C54" s="12"/>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="40" t="s">
+      <c r="K54" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
       <c r="P54" s="13"/>
     </row>
     <row r="55" spans="2:17">
       <c r="C55" s="12"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
       <c r="P55" s="13"/>
     </row>
     <row r="56" spans="2:17">
       <c r="C56" s="12"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
       <c r="P56" s="13"/>
     </row>
     <row r="57" spans="2:17">
       <c r="C57" s="12"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
       <c r="P57" s="13"/>
     </row>
     <row r="58" spans="2:17">
       <c r="C58" s="12"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
       <c r="P58" s="13"/>
     </row>
     <row r="59" spans="2:17">
@@ -4702,16 +4740,16 @@
       <c r="C9" s="14"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="16"/>
@@ -4720,14 +4758,14 @@
       <c r="C10" s="14"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="16"/>
@@ -4736,14 +4774,14 @@
       <c r="C11" s="14"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="16"/>
@@ -4752,14 +4790,14 @@
       <c r="C12" s="14"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="16"/>
@@ -4768,14 +4806,14 @@
       <c r="C13" s="14"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="16"/>
@@ -4803,7 +4841,7 @@
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="39" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="38"/>
@@ -4821,7 +4859,7 @@
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="44"/>
+      <c r="I16" s="39"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
@@ -4900,7 +4938,7 @@
     </row>
     <row r="21" spans="3:16" ht="20">
       <c r="C21" s="14"/>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="40" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="2"/>
@@ -4934,13 +4972,13 @@
     </row>
     <row r="23" spans="3:16" ht="18">
       <c r="C23" s="14"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="46"/>
+      <c r="J23" s="41"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -4950,15 +4988,15 @@
     </row>
     <row r="24" spans="3:16" ht="20">
       <c r="C24" s="14"/>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="46"/>
+      <c r="E24" s="41"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="46" t="s">
+      <c r="J24" s="41" t="s">
         <v>26</v>
       </c>
       <c r="K24" s="2"/>
@@ -4970,13 +5008,13 @@
     </row>
     <row r="25" spans="3:16" ht="18">
       <c r="C25" s="14"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="46"/>
+      <c r="J25" s="41"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -4986,15 +5024,15 @@
     </row>
     <row r="26" spans="3:16" ht="20">
       <c r="C26" s="14"/>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="46"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="46"/>
+      <c r="H26" s="41"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="46" t="s">
+      <c r="J26" s="41" t="s">
         <v>27</v>
       </c>
       <c r="K26" s="2"/>
@@ -5006,8 +5044,8 @@
     </row>
     <row r="27" spans="3:16" ht="18">
       <c r="C27" s="14"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -5022,10 +5060,10 @@
     </row>
     <row r="28" spans="3:16" ht="18">
       <c r="C28" s="14"/>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="46"/>
+      <c r="E28" s="41"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -5040,8 +5078,8 @@
     </row>
     <row r="29" spans="3:16" ht="18">
       <c r="C29" s="14"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -5071,20 +5109,20 @@
       <c r="P30" s="16"/>
     </row>
     <row r="31" spans="3:16">
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="49"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="44"/>
     </row>
     <row r="32" spans="3:16" ht="6" customHeight="1"/>
     <row r="33" spans="1:17">
@@ -5244,16 +5282,16 @@
       <c r="C47" s="14"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="41" t="s">
+      <c r="F47" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="16"/>
@@ -5262,14 +5300,14 @@
       <c r="C48" s="14"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="16"/>
@@ -5278,14 +5316,14 @@
       <c r="C49" s="14"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="16"/>
@@ -5294,14 +5332,14 @@
       <c r="C50" s="14"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="16"/>
@@ -5310,14 +5348,14 @@
       <c r="C51" s="14"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="16"/>
@@ -5356,86 +5394,86 @@
     </row>
     <row r="54" spans="3:16" ht="15" customHeight="1">
       <c r="C54" s="12"/>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="40" t="s">
+      <c r="K54" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
       <c r="P54" s="13"/>
     </row>
     <row r="55" spans="3:16" ht="15" customHeight="1">
       <c r="C55" s="12"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
       <c r="P55" s="13"/>
     </row>
     <row r="56" spans="3:16" ht="15" customHeight="1">
       <c r="C56" s="12"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
       <c r="P56" s="13"/>
     </row>
     <row r="57" spans="3:16" ht="15" customHeight="1">
       <c r="C57" s="12"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
       <c r="P57" s="13"/>
     </row>
     <row r="58" spans="3:16" ht="15" customHeight="1">
       <c r="C58" s="12"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
       <c r="P58" s="13"/>
     </row>
     <row r="59" spans="3:16" ht="15" customHeight="1">
@@ -5472,86 +5510,86 @@
     </row>
     <row r="61" spans="3:16" ht="15" customHeight="1">
       <c r="C61" s="12"/>
-      <c r="D61" s="40" t="s">
+      <c r="D61" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="40" t="s">
+      <c r="K61" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="L61" s="40"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
       <c r="P61" s="13"/>
     </row>
     <row r="62" spans="3:16" ht="15" customHeight="1">
       <c r="C62" s="12"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="46"/>
       <c r="P62" s="13"/>
     </row>
     <row r="63" spans="3:16" ht="15" customHeight="1">
       <c r="C63" s="12"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
       <c r="P63" s="13"/>
     </row>
     <row r="64" spans="3:16" ht="15" customHeight="1">
       <c r="C64" s="12"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="40"/>
-      <c r="N64" s="40"/>
-      <c r="O64" s="40"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
       <c r="P64" s="13"/>
     </row>
     <row r="65" spans="2:17" ht="15" customHeight="1">
       <c r="C65" s="12"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="40"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="40"/>
-      <c r="N65" s="40"/>
-      <c r="O65" s="40"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
       <c r="P65" s="13"/>
     </row>
     <row r="66" spans="2:17">
@@ -5626,7 +5664,6 @@
     <mergeCell ref="K61:O65"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5679,52 +5716,52 @@
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1">
       <c r="C6" s="29"/>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
       <c r="P6" s="30"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="C7" s="29"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
       <c r="P7" s="30"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1">
       <c r="C8" s="29"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
       <c r="P8" s="31"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1">
@@ -5761,84 +5798,84 @@
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1">
       <c r="C11" s="29"/>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
       <c r="P11" s="30"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="C12" s="29"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
       <c r="P12" s="30"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1">
       <c r="C13" s="29"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
       <c r="P13" s="30"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1">
       <c r="C14" s="29"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
       <c r="P14" s="30"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1">
       <c r="C15" s="29"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
       <c r="P15" s="30"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1">
@@ -5879,12 +5916,12 @@
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
-      <c r="H18" s="43" t="s">
+      <c r="H18" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="34"/>
@@ -5897,10 +5934,10 @@
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
       <c r="N19" s="34"/>
@@ -5913,10 +5950,10 @@
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
       <c r="N20" s="34"/>

--- a/10_SRS/modules_layout.xlsx
+++ b/10_SRS/modules_layout.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>&gt;&gt;</t>
   </si>
@@ -583,8 +583,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -712,7 +716,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -733,6 +737,8 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -753,6 +759,8 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2044,15 +2052,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> và nghĩa ở phía dưới</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>.</a:t>
+            <a:t> và nghĩa ở phía dưới.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5664,6 +5664,7 @@
     <mergeCell ref="K61:O65"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5675,7 +5676,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6104,6 +6105,50 @@
       <c r="O29" s="36"/>
       <c r="P29" s="37"/>
     </row>
+    <row r="31" spans="3:16">
+      <c r="C31" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>3</v>
+      </c>
+      <c r="E31" s="5">
+        <v>4</v>
+      </c>
+      <c r="F31" s="5">
+        <v>5</v>
+      </c>
+      <c r="G31" s="5">
+        <v>6</v>
+      </c>
+      <c r="H31" s="6">
+        <v>7</v>
+      </c>
+      <c r="I31" s="4">
+        <v>8</v>
+      </c>
+      <c r="J31" s="4">
+        <v>9</v>
+      </c>
+      <c r="K31" s="4">
+        <v>10</v>
+      </c>
+      <c r="L31" s="4">
+        <v>11</v>
+      </c>
+      <c r="M31" s="4">
+        <v>12</v>
+      </c>
+      <c r="N31" s="4">
+        <v>13</v>
+      </c>
+      <c r="O31" s="4">
+        <v>14</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D6:O8"/>

--- a/10_SRS/modules_layout.xlsx
+++ b/10_SRS/modules_layout.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThanhNV\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="vocabulary" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>&gt;&gt;</t>
   </si>
@@ -65,9 +70,6 @@
     <t>đỗ kì thì, vượt qua bài test</t>
   </si>
   <si>
-    <t>Hiển thị nội dung câu cho người dùng tập phát âm</t>
-  </si>
-  <si>
     <t>Hiển thị nội dung câu nhận dạng được khi người dùng phát âm</t>
   </si>
   <si>
@@ -78,7 +80,8 @@
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>or</t>
@@ -87,7 +90,8 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -96,7 +100,8 @@
       <rPr>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>NG</t>
@@ -125,7 +130,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -144,7 +149,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -163,7 +168,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -182,7 +187,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -201,7 +206,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -220,7 +225,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -239,7 +244,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -269,7 +274,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -288,7 +293,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -357,16 +362,120 @@
   <si>
     <t>HÁN VIỆT option4</t>
   </si>
+  <si>
+    <t>Style 2</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00:10:00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s</t>
+    </r>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Hiển thị nội dung câu cho người dùng tập phát âm</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Nội dung phát âm ( lấy từ sentence của database)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Nội dung của User đọc</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>START</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>STOP</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kết quả: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000099"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NG</t>
+    </r>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>日本語を勉強するのは難しいです。</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>日本語を勉強するのは難しいです。</t>
+    <phoneticPr fontId="15"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -374,7 +483,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -382,20 +491,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,23 +506,19 @@
       <sz val="36"/>
       <color rgb="FFFF6600"/>
       <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF660066"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,6 +532,8 @@
       <sz val="48"/>
       <color rgb="FFFF6600"/>
       <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="14"/>
@@ -444,12 +545,97 @@
       <sz val="72"/>
       <color rgb="FFFF6600"/>
       <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000099"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -630,7 +816,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -663,14 +849,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -681,40 +867,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -765,6 +964,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000099"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3434,6 +3646,810 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>50165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="next_icon.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4622800" y="8651875"/>
+          <a:ext cx="565150" cy="808990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="53975" dist="50800" dir="2700000" sx="102000" sy="102000" algn="tl" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="27000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>149266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>81305</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="next_icon.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="85725" y="8607466"/>
+          <a:ext cx="586130" cy="827999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="53975" dist="50800" dir="2700000" sx="102000" sy="102000" algn="tl" rotWithShape="0">
+            <a:schemeClr val="tx1">
+              <a:alpha val="27000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3074" name="AutoShape 2" descr="Image result for siri"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5610225" y="9601200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3075" name="AutoShape 3" descr="Image result for siri"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7972425" y="10553700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>56882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286001" y="10515333"/>
+          <a:ext cx="866774" cy="866774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3076" name="AutoShape 4" descr="Image result for repeat button"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8267700" y="8267700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3077" name="AutoShape 5" descr="Image result for repeat button"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6496050" y="8267700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3078" name="AutoShape 6" descr="Image result for repeat button"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7381875" y="8077200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>254518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2231</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="https://openclipart.org/image/800px/svg_to_png/198379/mono-repeat-track.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="619125" y="6741043"/>
+          <a:ext cx="333375" cy="243013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>20858</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="Image result for rec button"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3859433" y="6762750"/>
+          <a:ext cx="236317" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rounded Rectangular Callout 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="6286499"/>
+          <a:ext cx="1581150" cy="1019176"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -67896"/>
+            <a:gd name="adj2" fmla="val 7689"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Auto hiển</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> thị từ lúc bấm START -&gt; STOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(START thi clean va count lai tu dau)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rounded Rectangular Callout 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266825" y="6134100"/>
+          <a:ext cx="2362200" cy="885824"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66089"/>
+            <a:gd name="adj2" fmla="val 26381"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Bấm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> vào đây để nghe lại phần mình vừa nói.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(Save voice tạm thời từ lúc START -&gt; STOP, START thi refresh lai từ đầu)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3083" name="AutoShape 11" descr="Image result for details button"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6791325" y="8696325"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>160544</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="7886700"/>
+          <a:ext cx="552450" cy="208169"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rounded Rectangular Callout 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4743450" y="7448549"/>
+          <a:ext cx="1581150" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66089"/>
+            <a:gd name="adj2" fmla="val 26381"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Hiển</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> thị nghĩa Tiếng Việt (description)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3761,20 +4777,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="3.5" customWidth="1"/>
+    <col min="1" max="2" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20">
+    <row r="1" spans="1:16" ht="20.25">
       <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="20"/>
     </row>
-    <row r="4" spans="1:16" ht="7" customHeight="1"/>
+    <row r="4" spans="1:16" ht="6.95" customHeight="1"/>
     <row r="5" spans="1:16">
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -3839,7 +4855,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" spans="1:16" ht="20">
+    <row r="9" spans="1:16" ht="20.25">
       <c r="C9" s="14"/>
       <c r="D9" s="2"/>
       <c r="E9" s="7"/>
@@ -3861,32 +4877,32 @@
       <c r="C10" s="14"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:16" ht="11" customHeight="1">
+    <row r="11" spans="1:16" ht="11.1" customHeight="1">
       <c r="C11" s="14"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="16"/>
@@ -3895,14 +4911,14 @@
       <c r="C12" s="14"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="16"/>
@@ -3911,35 +4927,35 @@
       <c r="C13" s="14"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:16" ht="19" customHeight="1">
+    <row r="14" spans="1:16" ht="18.95" customHeight="1">
       <c r="C14" s="14"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:16" ht="20">
+    <row r="15" spans="1:16" ht="20.25">
       <c r="C15" s="12"/>
       <c r="D15" s="21" t="s">
         <v>3</v>
@@ -4205,7 +5221,7 @@
       </c>
       <c r="Q29" s="1"/>
     </row>
-    <row r="33" spans="1:16" ht="20">
+    <row r="33" spans="1:16" ht="20.25">
       <c r="A33" s="20" t="s">
         <v>10</v>
       </c>
@@ -4279,16 +5295,16 @@
       <c r="C41" s="14"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="45" t="s">
+      <c r="F41" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="45"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="16"/>
@@ -4297,14 +5313,14 @@
       <c r="C42" s="14"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="16"/>
@@ -4313,14 +5329,14 @@
       <c r="C43" s="14"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="16"/>
@@ -4329,14 +5345,14 @@
       <c r="C44" s="14"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="16"/>
@@ -4345,14 +5361,14 @@
       <c r="C45" s="14"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="16"/>
@@ -4375,86 +5391,86 @@
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1">
       <c r="C47" s="12"/>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="46" t="s">
+      <c r="K47" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
       <c r="P47" s="13"/>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1">
       <c r="C48" s="12"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
       <c r="P48" s="13"/>
     </row>
     <row r="49" spans="2:17" ht="15" customHeight="1">
       <c r="C49" s="12"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="46"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
       <c r="P49" s="13"/>
     </row>
     <row r="50" spans="2:17" ht="15" customHeight="1">
       <c r="C50" s="12"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="46"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
       <c r="P50" s="13"/>
     </row>
     <row r="51" spans="2:17" ht="15" customHeight="1">
       <c r="C51" s="12"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="46"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
       <c r="P51" s="13"/>
     </row>
     <row r="52" spans="2:17" ht="15" customHeight="1">
@@ -4491,86 +5507,86 @@
     </row>
     <row r="54" spans="2:17">
       <c r="C54" s="12"/>
-      <c r="D54" s="46" t="s">
+      <c r="D54" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="46" t="s">
+      <c r="K54" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="46"/>
-      <c r="O54" s="46"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
       <c r="P54" s="13"/>
     </row>
     <row r="55" spans="2:17">
       <c r="C55" s="12"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="46"/>
-      <c r="O55" s="46"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
       <c r="P55" s="13"/>
     </row>
     <row r="56" spans="2:17">
       <c r="C56" s="12"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46"/>
-      <c r="O56" s="46"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
       <c r="P56" s="13"/>
     </row>
     <row r="57" spans="2:17">
       <c r="C57" s="12"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="46"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="46"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
       <c r="P57" s="13"/>
     </row>
     <row r="58" spans="2:17">
       <c r="C58" s="12"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="46"/>
-      <c r="O58" s="46"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
       <c r="P58" s="13"/>
     </row>
     <row r="59" spans="2:17">
@@ -4644,6 +5660,7 @@
     <mergeCell ref="D54:H58"/>
     <mergeCell ref="K54:O58"/>
   </mergeCells>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -4658,20 +5675,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A61" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="3.5" customWidth="1"/>
+    <col min="1" max="2" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20">
+    <row r="1" spans="1:16" ht="20.25">
       <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="20"/>
     </row>
-    <row r="4" spans="1:16" ht="7" customHeight="1"/>
+    <row r="4" spans="1:16" ht="6.95" customHeight="1"/>
     <row r="5" spans="1:16">
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -4720,7 +5737,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="16"/>
     </row>
-    <row r="8" spans="1:16" ht="20">
+    <row r="8" spans="1:16" ht="20.25">
       <c r="C8" s="14"/>
       <c r="D8" s="2"/>
       <c r="E8" s="7"/>
@@ -4740,32 +5757,32 @@
       <c r="C9" s="14"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
+      <c r="F9" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16" ht="11" customHeight="1">
+    <row r="10" spans="1:16" ht="11.1" customHeight="1">
       <c r="C10" s="14"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="16"/>
@@ -4774,14 +5791,14 @@
       <c r="C11" s="14"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="16"/>
@@ -4790,30 +5807,30 @@
       <c r="C12" s="14"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="16"/>
     </row>
-    <row r="13" spans="1:16" ht="19" customHeight="1">
+    <row r="13" spans="1:16" ht="18.95" customHeight="1">
       <c r="C13" s="14"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="16"/>
@@ -4834,7 +5851,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:16" ht="19" customHeight="1">
+    <row r="15" spans="1:16" ht="18.95" customHeight="1">
       <c r="C15" s="14"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -4842,7 +5859,7 @@
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
       <c r="I15" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
@@ -4852,7 +5869,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:16" ht="19" customHeight="1">
+    <row r="16" spans="1:16" ht="18.95" customHeight="1">
       <c r="C16" s="14"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -4868,11 +5885,11 @@
       <c r="O16" s="2"/>
       <c r="P16" s="16"/>
     </row>
-    <row r="17" spans="3:16" ht="17">
+    <row r="17" spans="3:16">
       <c r="C17" s="14"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4902,11 +5919,11 @@
       <c r="O18" s="2"/>
       <c r="P18" s="16"/>
     </row>
-    <row r="19" spans="3:16" ht="17">
+    <row r="19" spans="3:16">
       <c r="C19" s="14"/>
       <c r="D19" s="2"/>
       <c r="E19" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
@@ -4936,10 +5953,10 @@
       <c r="O20" s="7"/>
       <c r="P20" s="15"/>
     </row>
-    <row r="21" spans="3:16" ht="20">
+    <row r="21" spans="3:16" ht="20.25">
       <c r="C21" s="14"/>
       <c r="D21" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -4986,10 +6003,10 @@
       <c r="O23" s="2"/>
       <c r="P23" s="16"/>
     </row>
-    <row r="24" spans="3:16" ht="20">
+    <row r="24" spans="3:16" ht="18">
       <c r="C24" s="14"/>
       <c r="D24" s="41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="2"/>
@@ -4997,7 +6014,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -5022,10 +6039,10 @@
       <c r="O25" s="2"/>
       <c r="P25" s="16"/>
     </row>
-    <row r="26" spans="3:16" ht="20">
+    <row r="26" spans="3:16" ht="18">
       <c r="C26" s="14"/>
       <c r="D26" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="41"/>
       <c r="F26" s="2"/>
@@ -5033,7 +6050,7 @@
       <c r="H26" s="41"/>
       <c r="I26" s="2"/>
       <c r="J26" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -5061,7 +6078,7 @@
     <row r="28" spans="3:16" ht="18">
       <c r="C28" s="14"/>
       <c r="D28" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="41"/>
       <c r="F28" s="2"/>
@@ -5172,7 +6189,7 @@
       </c>
       <c r="Q33" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="20">
+    <row r="37" spans="1:17" ht="20.25">
       <c r="A37" s="20" t="s">
         <v>10</v>
       </c>
@@ -5210,11 +6227,11 @@
       <c r="O42" s="2"/>
       <c r="P42" s="16"/>
     </row>
-    <row r="43" spans="1:17" ht="17">
+    <row r="43" spans="1:17">
       <c r="C43" s="12"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -5248,7 +6265,7 @@
       <c r="C45" s="14"/>
       <c r="D45" s="2"/>
       <c r="E45" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -5282,16 +6299,16 @@
       <c r="C47" s="14"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
+      <c r="F47" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="16"/>
@@ -5300,14 +6317,14 @@
       <c r="C48" s="14"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="16"/>
@@ -5316,14 +6333,14 @@
       <c r="C49" s="14"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="16"/>
@@ -5332,14 +6349,14 @@
       <c r="C50" s="14"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="16"/>
@@ -5348,14 +6365,14 @@
       <c r="C51" s="14"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="16"/>
@@ -5394,86 +6411,86 @@
     </row>
     <row r="54" spans="3:16" ht="15" customHeight="1">
       <c r="C54" s="12"/>
-      <c r="D54" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
+      <c r="D54" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="46"/>
-      <c r="O54" s="46"/>
+      <c r="K54" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
       <c r="P54" s="13"/>
     </row>
     <row r="55" spans="3:16" ht="15" customHeight="1">
       <c r="C55" s="12"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="46"/>
-      <c r="O55" s="46"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
       <c r="P55" s="13"/>
     </row>
     <row r="56" spans="3:16" ht="15" customHeight="1">
       <c r="C56" s="12"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46"/>
-      <c r="O56" s="46"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
       <c r="P56" s="13"/>
     </row>
     <row r="57" spans="3:16" ht="15" customHeight="1">
       <c r="C57" s="12"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="46"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="46"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
       <c r="P57" s="13"/>
     </row>
     <row r="58" spans="3:16" ht="15" customHeight="1">
       <c r="C58" s="12"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="46"/>
-      <c r="O58" s="46"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
       <c r="P58" s="13"/>
     </row>
     <row r="59" spans="3:16" ht="15" customHeight="1">
@@ -5510,86 +6527,86 @@
     </row>
     <row r="61" spans="3:16" ht="15" customHeight="1">
       <c r="C61" s="12"/>
-      <c r="D61" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
+      <c r="D61" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-      <c r="K61" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="46"/>
-      <c r="O61" s="46"/>
+      <c r="K61" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="L61" s="48"/>
+      <c r="M61" s="48"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="48"/>
       <c r="P61" s="13"/>
     </row>
     <row r="62" spans="3:16" ht="15" customHeight="1">
       <c r="C62" s="12"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="46"/>
-      <c r="O62" s="46"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="48"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="48"/>
       <c r="P62" s="13"/>
     </row>
     <row r="63" spans="3:16" ht="15" customHeight="1">
       <c r="C63" s="12"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="46"/>
-      <c r="O63" s="46"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
       <c r="P63" s="13"/>
     </row>
     <row r="64" spans="3:16" ht="15" customHeight="1">
       <c r="C64" s="12"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="46"/>
-      <c r="O64" s="46"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="48"/>
+      <c r="M64" s="48"/>
+      <c r="N64" s="48"/>
+      <c r="O64" s="48"/>
       <c r="P64" s="13"/>
     </row>
     <row r="65" spans="2:17" ht="15" customHeight="1">
       <c r="C65" s="12"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="46"/>
-      <c r="N65" s="46"/>
-      <c r="O65" s="46"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="48"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="48"/>
+      <c r="O65" s="48"/>
       <c r="P65" s="13"/>
     </row>
     <row r="66" spans="2:17">
@@ -5663,6 +6680,7 @@
     <mergeCell ref="D61:H65"/>
     <mergeCell ref="K61:O65"/>
   </mergeCells>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -5676,27 +6694,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="AC37" sqref="AC37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="20">
+    <row r="1" spans="1:16" ht="20.25">
       <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="20">
+    <row r="2" spans="1:16" ht="20.25">
       <c r="A2" s="20"/>
       <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="20.25">
       <c r="A3" s="20"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1">
@@ -5717,52 +6737,52 @@
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1">
       <c r="C6" s="29"/>
-      <c r="D6" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
+      <c r="D6" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
       <c r="P6" s="30"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="C7" s="29"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
       <c r="P7" s="30"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1">
       <c r="C8" s="29"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
       <c r="P8" s="31"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1">
@@ -5799,84 +6819,84 @@
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1">
       <c r="C11" s="29"/>
-      <c r="D11" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
+      <c r="D11" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
       <c r="P11" s="30"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="C12" s="29"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
       <c r="P12" s="30"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1">
       <c r="C13" s="29"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
       <c r="P13" s="30"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1">
       <c r="C14" s="29"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
       <c r="P14" s="30"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1">
       <c r="C15" s="29"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
       <c r="P15" s="30"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1">
@@ -5917,12 +6937,12 @@
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
-      <c r="H18" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
+      <c r="H18" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="34"/>
@@ -5935,10 +6955,10 @@
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
       <c r="N19" s="34"/>
@@ -5951,10 +6971,10 @@
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
       <c r="N20" s="34"/>
@@ -6149,14 +7169,498 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:16" ht="20.25">
+      <c r="A34" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="18.75" customHeight="1">
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" s="53"/>
+      <c r="P35" s="54"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="C36" s="12"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="13"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="C37" s="12"/>
+      <c r="D37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="13"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="C38" s="12"/>
+      <c r="D38" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="13"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="C39" s="12"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="13"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="C40" s="12"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="13"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="C41" s="12"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="13"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="C42" s="12"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="13"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="C43" s="12"/>
+      <c r="D43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="13"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="C44" s="12"/>
+      <c r="D44" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="13"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="C45" s="12"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="13"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="C46" s="12"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="13"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="C47" s="12"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="13"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="C48" s="12"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="13"/>
+    </row>
+    <row r="49" spans="3:16" ht="15.75">
+      <c r="C49" s="12"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="13"/>
+    </row>
+    <row r="50" spans="3:16">
+      <c r="C50" s="12"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="13"/>
+    </row>
+    <row r="51" spans="3:16">
+      <c r="C51" s="12"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="13"/>
+    </row>
+    <row r="52" spans="3:16">
+      <c r="C52" s="12"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="13"/>
+    </row>
+    <row r="53" spans="3:16">
+      <c r="C53" s="12"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="13"/>
+    </row>
+    <row r="54" spans="3:16">
+      <c r="C54" s="12"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="13"/>
+    </row>
+    <row r="55" spans="3:16">
+      <c r="C55" s="12"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="13"/>
+    </row>
+    <row r="56" spans="3:16" ht="15.75">
+      <c r="C56" s="12"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="13"/>
+    </row>
+    <row r="57" spans="3:16">
+      <c r="C57" s="12"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="13"/>
+    </row>
+    <row r="58" spans="3:16">
+      <c r="C58" s="12"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="13"/>
+    </row>
+    <row r="59" spans="3:16">
+      <c r="C59" s="12"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="13"/>
+    </row>
+    <row r="60" spans="3:16">
+      <c r="C60" s="17"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="19"/>
+    </row>
+    <row r="62" spans="3:16">
+      <c r="C62" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5">
+        <v>3</v>
+      </c>
+      <c r="E62" s="5">
+        <v>4</v>
+      </c>
+      <c r="F62" s="5">
+        <v>5</v>
+      </c>
+      <c r="G62" s="5">
+        <v>6</v>
+      </c>
+      <c r="H62" s="6">
+        <v>7</v>
+      </c>
+      <c r="I62" s="4">
+        <v>8</v>
+      </c>
+      <c r="J62" s="4">
+        <v>9</v>
+      </c>
+      <c r="K62" s="4">
+        <v>10</v>
+      </c>
+      <c r="L62" s="4">
+        <v>11</v>
+      </c>
+      <c r="M62" s="4">
+        <v>12</v>
+      </c>
+      <c r="N62" s="4">
+        <v>13</v>
+      </c>
+      <c r="O62" s="4">
+        <v>14</v>
+      </c>
+      <c r="P62" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D6:O8"/>
     <mergeCell ref="D11:O15"/>
     <mergeCell ref="H18:K20"/>
+    <mergeCell ref="N35:P35"/>
   </mergeCells>
+  <phoneticPr fontId="15"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/10_SRS/modules_layout.xlsx
+++ b/10_SRS/modules_layout.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>&gt;&gt;</t>
   </si>
@@ -466,12 +466,60 @@
     <t>日本語を勉強するのは難しいです。</t>
     <phoneticPr fontId="15"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(Phần này kỳ vọng trong vòng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sẽ được bạn hoàn thành)</t>
+    </r>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repeat</t>
+    </r>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Hiển thị nghĩa tiếng việt khi bấm nút Details</t>
+    <phoneticPr fontId="15"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -638,6 +686,20 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -665,7 +727,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -768,6 +830,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -816,7 +940,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -914,6 +1038,18 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3650,13 +3786,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3701,13 +3837,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>149266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>81305</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>24765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3752,13 +3888,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3794,13 +3930,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3836,13 +3972,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>152133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>56882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3874,13 +4010,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3916,13 +4052,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3958,13 +4094,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4000,13 +4136,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>254518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>2231</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4055,13 +4191,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>20858</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4109,15 +4245,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4126,13 +4262,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5048250" y="6286499"/>
-          <a:ext cx="1581150" cy="1019176"/>
+          <a:off x="5057775" y="7019925"/>
+          <a:ext cx="2514600" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -67896"/>
-            <a:gd name="adj2" fmla="val 7689"/>
+            <a:gd name="adj1" fmla="val -69703"/>
+            <a:gd name="adj2" fmla="val 1689"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -4165,6 +4301,30 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" u="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Hiể</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>n thị thời gian thực tế User reading:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" i="1" u="sng">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -4189,7 +4349,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>(START thi clean va count lai tu dau)</a:t>
+            <a:t>(START thì clean và count lại từ đầu)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4198,16 +4358,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4216,13 +4376,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1266825" y="6134100"/>
+          <a:off x="733425" y="6229350"/>
           <a:ext cx="2362200" cy="885824"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -66089"/>
-            <a:gd name="adj2" fmla="val 26381"/>
+            <a:gd name="adj1" fmla="val -41895"/>
+            <a:gd name="adj2" fmla="val 76919"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -4290,13 +4450,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4332,13 +4492,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>160544</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4370,13 +4530,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4438,9 +4598,186 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> thị nghĩa Tiếng Việt (description)</a:t>
+            <a:t> thị nghĩa Tiếng Việt (description) phía dưới or dạng TIP</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rounded Rectangular Callout 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4829174" y="9972675"/>
+          <a:ext cx="2562225" cy="1085849"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -127639"/>
+            <a:gd name="adj2" fmla="val -8319"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10s này</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> lấy từ database??? Nếu lấy từ DB thì collection sentence cần thêm 1 column là time???</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rounded Rectangular Callout 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4895849" y="11458576"/>
+          <a:ext cx="2390775" cy="1171574"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -119662"/>
+            <a:gd name="adj2" fmla="val -36025"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1. Khởi tạo sẽ để lable là: START</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2. Sau khi bấm START -&gt; lable chuyển thành STOP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(Nếu đọc quá 10s thì vẫn được ghi âm cho tới khi user bấm STOP)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -6694,10 +7031,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="AC37" sqref="AC37"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.44140625" defaultRowHeight="15"/>
@@ -7169,168 +7506,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="20.25">
-      <c r="A34" s="20" t="s">
+    <row r="37" spans="1:16" ht="20.25">
+      <c r="A37" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="18.75" customHeight="1">
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="52" t="s">
+    <row r="38" spans="1:16" ht="18.75" customHeight="1">
+      <c r="C38" s="45"/>
+      <c r="D38" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="O35" s="53"/>
-      <c r="P35" s="54"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="C36" s="12"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="13"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="C37" s="12"/>
-      <c r="D37" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="13"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="C38" s="12"/>
-      <c r="D38" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="13"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="54"/>
     </row>
     <row r="39" spans="1:16">
       <c r="C39" s="12"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="16"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
       <c r="P39" s="13"/>
     </row>
     <row r="40" spans="1:16">
       <c r="C40" s="12"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="16"/>
+      <c r="D40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="11"/>
       <c r="P40" s="13"/>
     </row>
     <row r="41" spans="1:16">
       <c r="C41" s="12"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="44"/>
+      <c r="D41" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="16"/>
       <c r="P41" s="13"/>
     </row>
     <row r="42" spans="1:16">
       <c r="C42" s="12"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="16"/>
       <c r="P42" s="13"/>
     </row>
     <row r="43" spans="1:16">
       <c r="C43" s="12"/>
-      <c r="D43" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="11"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="16"/>
       <c r="P43" s="13"/>
     </row>
     <row r="44" spans="1:16">
       <c r="C44" s="12"/>
-      <c r="D44" s="56" t="s">
-        <v>41</v>
-      </c>
+      <c r="D44" s="14"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -7346,132 +7633,124 @@
     </row>
     <row r="45" spans="1:16">
       <c r="C45" s="12"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="16"/>
+      <c r="D45" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="61"/>
       <c r="P45" s="13"/>
     </row>
     <row r="46" spans="1:16">
       <c r="C46" s="12"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="16"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="64"/>
       <c r="P46" s="13"/>
     </row>
     <row r="47" spans="1:16">
       <c r="C47" s="12"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="44"/>
       <c r="P47" s="13"/>
     </row>
     <row r="48" spans="1:16">
       <c r="C48" s="12"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
+      <c r="D48" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="11"/>
       <c r="P48" s="13"/>
     </row>
-    <row r="49" spans="3:16" ht="15.75">
+    <row r="49" spans="3:16">
       <c r="C49" s="12"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
+      <c r="D49" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="16"/>
       <c r="P49" s="13"/>
     </row>
     <row r="50" spans="3:16">
       <c r="C50" s="12"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="16"/>
       <c r="P50" s="13"/>
     </row>
     <row r="51" spans="3:16">
       <c r="C51" s="12"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="16"/>
       <c r="P51" s="13"/>
     </row>
     <row r="52" spans="3:16">
       <c r="C52" s="12"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="44"/>
       <c r="P52" s="13"/>
     </row>
     <row r="53" spans="3:16">
@@ -7490,12 +7769,14 @@
       <c r="O53" s="1"/>
       <c r="P53" s="13"/>
     </row>
-    <row r="54" spans="3:16">
+    <row r="54" spans="3:16" ht="15.75">
       <c r="C54" s="12"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -7524,22 +7805,20 @@
     </row>
     <row r="56" spans="3:16" ht="15.75">
       <c r="C56" s="12"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
+      <c r="D56" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
       <c r="P56" s="13"/>
     </row>
     <row r="57" spans="3:16">
@@ -7591,71 +7870,156 @@
       <c r="P59" s="13"/>
     </row>
     <row r="60" spans="3:16">
-      <c r="C60" s="17"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="19"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="13"/>
+    </row>
+    <row r="61" spans="3:16" ht="15.75">
+      <c r="C61" s="12"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="13"/>
     </row>
     <row r="62" spans="3:16">
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="12"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="13"/>
+    </row>
+    <row r="63" spans="3:16">
+      <c r="C63" s="12"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="13"/>
+    </row>
+    <row r="64" spans="3:16">
+      <c r="C64" s="12"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="13"/>
+    </row>
+    <row r="65" spans="3:16">
+      <c r="C65" s="17"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="19"/>
+    </row>
+    <row r="67" spans="3:16">
+      <c r="C67" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D67" s="5">
         <v>3</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E67" s="5">
         <v>4</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F67" s="5">
         <v>5</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G67" s="5">
         <v>6</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H67" s="6">
         <v>7</v>
       </c>
-      <c r="I62" s="4">
+      <c r="I67" s="4">
         <v>8</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J67" s="4">
         <v>9</v>
       </c>
-      <c r="K62" s="4">
+      <c r="K67" s="4">
         <v>10</v>
       </c>
-      <c r="L62" s="4">
+      <c r="L67" s="4">
         <v>11</v>
       </c>
-      <c r="M62" s="4">
+      <c r="M67" s="4">
         <v>12</v>
       </c>
-      <c r="N62" s="4">
+      <c r="N67" s="4">
         <v>13</v>
       </c>
-      <c r="O62" s="4">
+      <c r="O67" s="4">
         <v>14</v>
       </c>
-      <c r="P62" s="8" t="s">
+      <c r="P67" s="8" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D6:O8"/>
     <mergeCell ref="D11:O15"/>
     <mergeCell ref="H18:K20"/>
-    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="D56:O56"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
